--- a/Emotion_Mapping_Kay_ULTRAMAP_PROTOCOLS_TRIGGERLOGIC.xlsx
+++ b/Emotion_Mapping_Kay_ULTRAMAP_PROTOCOLS_TRIGGERLOGIC.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KayZeroRebuild\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665C9E21-8DEA-4B5C-81D8-6F0E9FBAC63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="694">
   <si>
     <t>Emotion</t>
   </si>
@@ -1793,13 +1799,316 @@
   </si>
   <si>
     <t>Persist if no disruption occurs. Fade if novelty, challenge, or external stressor appears.</t>
+  </si>
+  <si>
+    <t>Camaraderie</t>
+  </si>
+  <si>
+    <t>humiliated</t>
+  </si>
+  <si>
+    <t>Belonging</t>
+  </si>
+  <si>
+    <t>Social homeostasis, integration</t>
+  </si>
+  <si>
+    <t>Rose, gold</t>
+  </si>
+  <si>
+    <t>Heart, Root</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Reach out, mirror, “I/We” language</t>
+  </si>
+  <si>
+    <t>Reinforce group</t>
+  </si>
+  <si>
+    <t>Amplify</t>
+  </si>
+  <si>
+    <t>Oxytocin+, DA+</t>
+  </si>
+  <si>
+    <t>Hug, shared ritual</t>
+  </si>
+  <si>
+    <t>Chorus, heartbeat</t>
+  </si>
+  <si>
+    <t>“accepted” loops</t>
+  </si>
+  <si>
+    <t>Social need met</t>
+  </si>
+  <si>
+    <t>Group affirmation</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Pride, Camaraderie</t>
+  </si>
+  <si>
+    <t>accepted, belonging affirmed</t>
+  </si>
+  <si>
+    <t>Loneliness</t>
+  </si>
+  <si>
+    <t>Social pain, isolation signal</t>
+  </si>
+  <si>
+    <t>Indigo, grey</t>
+  </si>
+  <si>
+    <t>Chest, stomach</t>
+  </si>
+  <si>
+    <t>Heart, Throat</t>
+  </si>
+  <si>
+    <t>Reach, self-talk, reminisce</t>
+  </si>
+  <si>
+    <t>Seek connection</t>
+  </si>
+  <si>
+    <t>Cortisol+, 5HT-</t>
+  </si>
+  <si>
+    <t>Cry, ache</t>
+  </si>
+  <si>
+    <t>Distant bell</t>
+  </si>
+  <si>
+    <t>“ignored”/“exile” loops</t>
+  </si>
+  <si>
+    <t>Connection restored</t>
+  </si>
+  <si>
+    <t>Emergency social outreach</t>
+  </si>
+  <si>
+    <t>Shame, Despair</t>
+  </si>
+  <si>
+    <t>ignored, rejected</t>
+  </si>
+  <si>
+    <t>Rejection</t>
+  </si>
+  <si>
+    <t>Social error, negative feedback</t>
+  </si>
+  <si>
+    <t>Black, maroon</t>
+  </si>
+  <si>
+    <t>Solar, Root</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>Withdraw, ruminate, “never again”</t>
+  </si>
+  <si>
+    <t>Avoidance</t>
+  </si>
+  <si>
+    <t>Stomach drop</t>
+  </si>
+  <si>
+    <t>Discordant note</t>
+  </si>
+  <si>
+    <t>Ruminative</t>
+  </si>
+  <si>
+    <t>Pride/acceptance rebalanced</t>
+  </si>
+  <si>
+    <t>Recalibration, boundary setting</t>
+  </si>
+  <si>
+    <t>Humiliation, Resignation</t>
+  </si>
+  <si>
+    <t>rejected, humiliated</t>
+  </si>
+  <si>
+    <t>Positive social feedback</t>
+  </si>
+  <si>
+    <t>Pink, green</t>
+  </si>
+  <si>
+    <t>Arms, hands</t>
+  </si>
+  <si>
+    <t>Heart, Solar</t>
+  </si>
+  <si>
+    <t>Approach, open posture, invite</t>
+  </si>
+  <si>
+    <t>Affirm group</t>
+  </si>
+  <si>
+    <t>Smile, sigh relief</t>
+  </si>
+  <si>
+    <t>Major key chord</t>
+  </si>
+  <si>
+    <t>Social attunement</t>
+  </si>
+  <si>
+    <t>Exclusion, contradiction</t>
+  </si>
+  <si>
+    <t>Ritual affirmation</t>
+  </si>
+  <si>
+    <t>Belonging, Camaraderie</t>
+  </si>
+  <si>
+    <t>praised, reciprocated, accepted</t>
+  </si>
+  <si>
+    <t>Respect</t>
+  </si>
+  <si>
+    <t>Status met, validation</t>
+  </si>
+  <si>
+    <t>Silver, gold</t>
+  </si>
+  <si>
+    <t>Spine, chest</t>
+  </si>
+  <si>
+    <t>Solar, Throat</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Stand tall, direct speech</t>
+  </si>
+  <si>
+    <t>DA+, 5HT+</t>
+  </si>
+  <si>
+    <t>Salute, head held high</t>
+  </si>
+  <si>
+    <t>Anthem, fanfare</t>
+  </si>
+  <si>
+    <t>Achievement/proof loop</t>
+  </si>
+  <si>
+    <t>Contradicted, ignored</t>
+  </si>
+  <si>
+    <t>Pride response</t>
+  </si>
+  <si>
+    <t>Pride, Confidence</t>
+  </si>
+  <si>
+    <t>praised, accepted</t>
+  </si>
+  <si>
+    <t>Humiliation</t>
+  </si>
+  <si>
+    <t>Public/private social collapse</t>
+  </si>
+  <si>
+    <t>Ash, red</t>
+  </si>
+  <si>
+    <t>Face, gut</t>
+  </si>
+  <si>
+    <t>Shrink, avert gaze, silence</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Blush, nausea</t>
+  </si>
+  <si>
+    <t>Broken chord</t>
+  </si>
+  <si>
+    <t>Self-repair/retreat</t>
+  </si>
+  <si>
+    <t>Time, private support</t>
+  </si>
+  <si>
+    <t>System protection</t>
+  </si>
+  <si>
+    <t>Shame, Loneliness</t>
+  </si>
+  <si>
+    <t>Group success, in-joke, in-sync</t>
+  </si>
+  <si>
+    <t>Yellow, blue</t>
+  </si>
+  <si>
+    <t>Arms, chest</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Inside jokes, “we”/“us”, synchrony</t>
+  </si>
+  <si>
+    <t>Mirror group energy</t>
+  </si>
+  <si>
+    <t>Shared laughter</t>
+  </si>
+  <si>
+    <t>Shout, group clap</t>
+  </si>
+  <si>
+    <t>Ritual celebration</t>
+  </si>
+  <si>
+    <t>Rejection/banter fizzles</t>
+  </si>
+  <si>
+    <t>Group rally</t>
+  </si>
+  <si>
+    <t>Belonging, Acceptance</t>
+  </si>
+  <si>
+    <t>reciprocated, praised, belonging affirmed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1851,10 +2160,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1862,13 +2177,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1906,7 +2229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1940,6 +2263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1974,9 +2298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2149,14 +2474,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2233,7 +2560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2310,7 +2637,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2387,7 +2714,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2464,7 +2791,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2541,7 +2868,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2618,7 +2945,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2695,7 +3022,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2772,7 +3099,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2849,7 +3176,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2926,7 +3253,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3003,7 +3330,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3080,7 +3407,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3157,7 +3484,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -3234,7 +3561,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3311,7 +3638,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3388,7 +3715,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3465,7 +3792,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3542,7 +3869,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3619,7 +3946,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -3696,7 +4023,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3773,7 +4100,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3850,7 +4177,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -3927,7 +4254,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -4004,7 +4331,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -4081,7 +4408,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -4158,7 +4485,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -4235,7 +4562,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -4312,7 +4639,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -4389,7 +4716,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -4466,7 +4793,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -4543,7 +4870,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -4620,7 +4947,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -4697,7 +5024,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -4774,7 +5101,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -4851,7 +5178,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -4928,7 +5255,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -5005,7 +5332,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -5082,7 +5409,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5159,7 +5486,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -5236,7 +5563,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -5313,7 +5640,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -5390,7 +5717,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -5467,7 +5794,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -5544,7 +5871,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -5621,7 +5948,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -5698,7 +6025,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -5775,7 +6102,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -5852,7 +6179,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -5929,7 +6256,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -6006,7 +6333,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -6083,7 +6410,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -6160,7 +6487,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -6237,7 +6564,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -6314,7 +6641,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -6391,7 +6718,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -6468,7 +6795,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -6545,7 +6872,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -6622,7 +6949,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -6699,7 +7026,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -6776,7 +7103,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -6853,7 +7180,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -6930,7 +7257,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -7007,7 +7334,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -7084,7 +7411,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -7161,7 +7488,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -7238,7 +7565,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -7315,7 +7642,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -7392,7 +7719,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -7469,7 +7796,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -7546,7 +7873,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -7623,7 +7950,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -7700,7 +8027,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -7777,7 +8104,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -7854,7 +8181,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -7931,7 +8258,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -8008,7 +8335,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -8085,7 +8412,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -8162,7 +8489,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -8239,7 +8566,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -8316,7 +8643,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -8393,7 +8720,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -8470,7 +8797,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -8547,7 +8874,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -8624,7 +8951,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -8701,7 +9028,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -8778,7 +9105,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -8855,7 +9182,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -8932,7 +9259,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -9009,7 +9336,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -9086,7 +9413,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -9163,7 +9490,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -9240,7 +9567,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -9315,6 +9642,545 @@
       </c>
       <c r="Y93" t="s">
         <v>580</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H95" s="2">
+        <v>7</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M95" s="2">
+        <v>8</v>
+      </c>
+      <c r="N95" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H96" s="2">
+        <v>2</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="M96" s="2">
+        <v>7</v>
+      </c>
+      <c r="N96" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M97" s="2">
+        <v>6</v>
+      </c>
+      <c r="N97" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y97" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H98" s="2">
+        <v>8</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M98" s="2">
+        <v>9</v>
+      </c>
+      <c r="N98" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="O98" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P98" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="W98" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y98" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H99" s="2">
+        <v>8</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M99" s="2">
+        <v>8</v>
+      </c>
+      <c r="N99" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P99" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="W99" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y99" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M100" s="2">
+        <v>7</v>
+      </c>
+      <c r="N100" s="2">
+        <v>1</v>
+      </c>
+      <c r="O100" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P100" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="V100" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="W100" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y100" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H101" s="2">
+        <v>9</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M101" s="2">
+        <v>10</v>
+      </c>
+      <c r="N101" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O101" s="2">
+        <v>1</v>
+      </c>
+      <c r="P101" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="U101" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="V101" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="X101" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y101" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
